--- a/results/TotalTechnologyModelPeriodActivity.xlsx
+++ b/results/TotalTechnologyModelPeriodActivity.xlsx
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-8.077935669463161e-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -968,7 +968,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRA_Electricity</t>
+          <t>TRA_Car_Gasoline</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -983,11 +983,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DMD_ElecResidential</t>
+          <t>TRA_Car_Diesel</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>51994.36718564601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -998,11 +998,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DMD_ElecCommercial</t>
+          <t>TRA_Car_Hybrid</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>51994.367185646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DMD_ElecIndustrial</t>
+          <t>TRA_Car_BEV</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DMD_ElecWater</t>
+          <t>TRA_Car_H2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>51994.367185646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DMD_ElecAgriculture</t>
+          <t>TRA_Bus_Diesel</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>51994.36718564601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRA_Car_Gasoline</t>
+          <t>TRA_Bus_CNG</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>51994.36718564601</v>
       </c>
     </row>
     <row r="43">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRA_Car_Diesel</t>
+          <t>TRA_Bus_Electric</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRA_Car_Hybrid</t>
+          <t>TRA_Bus_H2</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRA_Car_BEV</t>
+          <t>TRA_LightRail_Electric</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>51994.36718564601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRA_Car_H2</t>
+          <t>TRA_Metro_Electric</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRA_Bus_Diesel</t>
+          <t>TRA_Rail_Passenger_Electric</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRA_Bus_CNG</t>
+          <t>TRA_Rail_Freight_Diesel</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>51994.36718564601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRA_Bus_Electric</t>
+          <t>TRA_Truck_Diesel</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRA_Bus_H2</t>
+          <t>TRA_Truck_Electric</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>51994.36718564601</v>
       </c>
     </row>
     <row r="51">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRA_LightRail_Electric</t>
+          <t>TRA_Truck_H2</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRA_Metro_Electric</t>
+          <t>TRA_AgVehicle_Diesel</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRA_Rail_Passenger_Electric</t>
+          <t>TRA_AgVehicle_Electric</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>51994.367185646</v>
       </c>
     </row>
     <row r="54">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRA_Rail_Freight_Diesel</t>
+          <t>TRA_HeavyEquip_Diesel</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRA_Truck_Diesel</t>
+          <t>TRA_HeavyEquip_Electric</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>51994.36718564601</v>
       </c>
     </row>
     <row r="56">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRA_Truck_Electric</t>
+          <t>IND_Boiler_NaturalGas</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRA_Truck_H2</t>
+          <t>IND_Electric_Heating</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRA_AgVehicle_Diesel</t>
+          <t>HC_HeatPump_AC_Electric</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1313,11 +1313,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRA_AgVehicle_Electric</t>
+          <t>HC_GasBoiler</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>51994.36718564601</v>
+        <v>103988.7343715416</v>
       </c>
     </row>
     <row r="60">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRA_HeavyEquip_Diesel</t>
+          <t>HC_SolarWaterHeater</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRA_HeavyEquip_Electric</t>
+          <t>HC_DistrictCooling</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>51994.36718564601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IND_Boiler_NaturalGas</t>
+          <t>TRA_Electricity</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>51994.367185646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1373,11 +1373,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IND_Electric_Heating</t>
+          <t>DMD_ElecResidential</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>51994.367185646</v>
       </c>
     </row>
     <row r="64">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HC_HeatPump_AC_Electric</t>
+          <t>DMD_ElecCommercial</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>51994.367185646</v>
       </c>
     </row>
     <row r="65">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HC_GasBoiler</t>
+          <t>DMD_ElecIndustrial</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>103988.7343715416</v>
+        <v>51994.367185646</v>
       </c>
     </row>
     <row r="66">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HC_SolarWaterHeater</t>
+          <t>DMD_ElecWater</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>51994.36718564601</v>
       </c>
     </row>
     <row r="67">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HC_DistrictCooling</t>
+          <t>DMD_ElecAgriculture</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>51994.36718564601</v>
       </c>
     </row>
   </sheetData>
